--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -9,7 +9,8 @@
     <sheet state="visible" name="ContactezNous" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="DemandezUnDevis" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Formateur" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Register" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Invalid_Register" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="ValidRegister" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Login</t>
   </si>
@@ -209,6 +210,12 @@
   </si>
   <si>
     <t>imen190@gmail.com</t>
+  </si>
+  <si>
+    <t>ZAKRAOUTASNIM</t>
+  </si>
+  <si>
+    <t>ZAKRAOUTASNIME2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,6 +378,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1103,4 +1114,53 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.38"/>
+    <col customWidth="1" min="2" max="2" width="25.75"/>
+    <col customWidth="1" min="3" max="3" width="16.63"/>
+    <col customWidth="1" min="4" max="4" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5">
+        <v>12345.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12345.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -11,6 +11,8 @@
     <sheet state="visible" name="Formateur" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Invalid_Register" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="ValidRegister" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="personnel_info" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="change_password" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Login</t>
   </si>
@@ -216,13 +218,61 @@
   </si>
   <si>
     <t>ZAKRAOUTASNIME2@gmail.com</t>
+  </si>
+  <si>
+    <t>Biographical Info</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis emna labidi, titulaire d'un master professionnel en ingénierie des logiciel </t>
+  </si>
+  <si>
+    <t>EMNA</t>
+  </si>
+  <si>
+    <t>LABIDI</t>
+  </si>
+  <si>
+    <t>EMNALAB</t>
+  </si>
+  <si>
+    <t>Je maitrise bien la langue française et allemande et j'ai des bonnes connaisances en développement logiciel</t>
+  </si>
+  <si>
+    <t>emna</t>
+  </si>
+  <si>
+    <t>labidi</t>
+  </si>
+  <si>
+    <t>labidiemna</t>
+  </si>
+  <si>
+    <t>Old password</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Confirmation password</t>
+  </si>
+  <si>
+    <t>abcd1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,8 +320,19 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +347,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,14 +378,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -327,7 +394,7 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -336,14 +403,20 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,6 +430,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -382,6 +459,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -618,6 +699,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.13"/>
+    <col customWidth="1" min="2" max="2" width="17.88"/>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1234567.0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11111.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22222.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5">
+        <v>12345.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12345.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -1163,4 +1313,68 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="93.13"/>
+    <col customWidth="1" min="5" max="5" width="31.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="LOGIN1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="LOGIN2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="INVALID" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="logininvalid" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ContactezNous" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="DemandezUnDevis" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Formateur" sheetId="6" r:id="rId9"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Login</t>
   </si>
@@ -40,9 +40,15 @@
     <t>123@b45</t>
   </si>
   <si>
+    <t>EMNALABIDI@</t>
+  </si>
+  <si>
     <t>phbnhbxx</t>
   </si>
   <si>
+    <t>hkkkl123@gmail.com</t>
+  </si>
+  <si>
     <t>NOM</t>
   </si>
   <si>
@@ -214,10 +220,10 @@
     <t>imen190@gmail.com</t>
   </si>
   <si>
-    <t>ZAKRAOUTASNIM</t>
-  </si>
-  <si>
-    <t>ZAKRAOUTASNIME2@gmail.com</t>
+    <t>almaBH</t>
+  </si>
+  <si>
+    <t>popup2@gmail.com</t>
   </si>
   <si>
     <t>Biographical Info</t>
@@ -391,10 +397,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -687,8 +693,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12345.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
@@ -716,43 +726,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1234567.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>81</v>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>11111.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>22222.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>12345.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>12345.0</v>
       </c>
     </row>
@@ -808,6 +818,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -827,10 +840,18 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456.0</v>
       </c>
     </row>
   </sheetData>
@@ -854,59 +875,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -936,147 +957,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4">
         <v>2.2666666E7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.8363695E7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>586.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.8363695E7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.2666666E7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5">
-        <v>586.0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.2666666E7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1103,73 +1124,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4">
         <v>5.5896314E7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4">
         <v>5922222.0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4">
         <v>5.58963145E8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4">
         <v>5.5896314E7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1193,71 +1214,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4">
         <v>12345.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>12345.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4">
         <v>12345.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>12345.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
         <v>12345.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>12345.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4">
         <v>12345.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>54321.0</v>
       </c>
     </row>
@@ -1284,29 +1305,29 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4">
         <v>12345.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>12345.0</v>
       </c>
     </row>
@@ -1331,46 +1352,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="12"/>
     </row>

--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -220,10 +220,10 @@
     <t>imen190@gmail.com</t>
   </si>
   <si>
-    <t>almaBH</t>
-  </si>
-  <si>
-    <t>popup2@gmail.com</t>
+    <t>Sirinealoui</t>
+  </si>
+  <si>
+    <t>Sirinealoui230@gmail.com</t>
   </si>
   <si>
     <t>Biographical Info</t>

--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -220,10 +220,10 @@
     <t>imen190@gmail.com</t>
   </si>
   <si>
-    <t>Sirinealoui</t>
-  </si>
-  <si>
-    <t>Sirinealoui230@gmail.com</t>
+    <t>beyabriki</t>
+  </si>
+  <si>
+    <t>beyabriki530@gmail.com</t>
   </si>
   <si>
     <t>Biographical Info</t>

--- a/TestData/DataTest.xlsx
+++ b/TestData/DataTest.xlsx
@@ -220,10 +220,10 @@
     <t>imen190@gmail.com</t>
   </si>
   <si>
-    <t>beyabriki</t>
-  </si>
-  <si>
-    <t>beyabriki530@gmail.com</t>
+    <t>beyabrikiiiaaa</t>
+  </si>
+  <si>
+    <t>beyabrikiaa53330@gmail.com</t>
   </si>
   <si>
     <t>Biographical Info</t>
